--- a/2/data/capbac.xlsx
+++ b/2/data/capbac.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buivu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buivu\Downloads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE92223-B836-4495-95FD-5B6918A44C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868F754-E50A-4898-A236-EC44CA606753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D25EB6FD-932B-45DA-9D12-884FF9153470}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>capbac</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TX</t>
   </si>
@@ -69,6 +66,12 @@
   </si>
   <si>
     <t>macapbac</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Trung học phổ thông</t>
   </si>
 </sst>
 </file>
@@ -126,10 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +451,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,48 +462,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
